--- a/Gama_Spectroscopy/table.xlsx
+++ b/Gama_Spectroscopy/table.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A25" sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C19" si="0">C5 *0.511/(0.511+2*C5)</f>
+        <f t="shared" ref="C6" si="0">C5 *0.511/(0.511+2*C5)</f>
         <v>0.21432671081677704</v>
       </c>
       <c r="D6">
@@ -512,7 +512,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C19" si="2">C8 *0.511/(0.511+2*C8)</f>
+        <f t="shared" ref="C9" si="2">C8 *0.511/(0.511+2*C8)</f>
         <v>0.20976952714535901</v>
       </c>
       <c r="D9">
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C19" si="4">C11 *0.511/(0.511+2*C11)</f>
+        <f t="shared" ref="C12" si="4">C11 *0.511/(0.511+2*C11)</f>
         <v>0.21290277324632953</v>
       </c>
       <c r="D12">
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C19" si="6">C14 *0.511/(0.511+2*C14)</f>
+        <f t="shared" ref="C15" si="6">C14 *0.511/(0.511+2*C14)</f>
         <v>0.17033333333333334</v>
       </c>
       <c r="D15" t="s">
@@ -626,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:C19" si="8">C17 *0.511/(0.511+2*C17)</f>
+        <f t="shared" ref="C18" si="8">C17 *0.511/(0.511+2*C17)</f>
         <v>0.19563732232920678</v>
       </c>
       <c r="D18">
@@ -661,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C25" si="10">C20 *0.511/(0.511+2*C20)</f>
+        <f t="shared" ref="C21" si="10">C20 *0.511/(0.511+2*C20)</f>
         <v>0.1740524017467249</v>
       </c>
     </row>
@@ -690,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C25" si="12">C23 *0.511/(0.511+2*C23)</f>
+        <f t="shared" ref="C24" si="12">C23 *0.511/(0.511+2*C23)</f>
         <v>0.14874570727718725</v>
       </c>
     </row>
